--- a/biology/Microbiologie/Colpodidae/Colpodidae.xlsx
+++ b/biology/Microbiologie/Colpodidae/Colpodidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colpodidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Colpodida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Colpodidium, dérivé du grec ancien κολποδ / colpod, « courbé ; sinueux » (lui-même issu de κόλπος / kólpos, « pli ; cavité ; vallée profonde »), et du nouveau latin -idium (du grec  ειδος / eidos, « à l'aspect de »). Les noms Colpoda, Colpodea, Colpidium, Colpodidium (pour les deux derniers littéralement « ayant l'aspect d'un Colpoda »), font probablement référence  au pli sur l'organisme où se trouve le sillon buccal [1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Colpodidium, dérivé du grec ancien κολποδ / colpod, « courbé ; sinueux » (lui-même issu de κόλπος / kólpos, « pli ; cavité ; vallée profonde »), et du nouveau latin -idium (du grec  ειδος / eidos, « à l'aspect de »). Les noms Colpoda, Colpodea, Colpidium, Colpodidium (pour les deux derniers littéralement « ayant l'aspect d'un Colpoda »), font probablement référence  au pli sur l'organisme où se trouve le sillon buccal ,.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 En 1826, lorsqu'il créa cette famille, Bory de St-Vincent la décrivit ainsi : 
 « IV°. famille des Kolpodinées. 
 Corps plus ou moins membraneux, jamais cylindracé, où des globules hyalins plus visibles, se prononcent dans la masse de la molécule[note 1] constitutrice, et qui, évidemment contractile, varie de forme selon la volonté de l'animal. … (Ces organismes) sont évidemment tomipares[note 2], et se reproduisent sous l'œil de l'observateur par division ou par dédoublement. On les trouve dans toutes les eaux, depuis celle des infusions jusque dans la mer… 
-Genre 12. Kolpode, Kolpoda, Muller, (1773). Corps parfaitement membraneux, atténué au moins vers l’une de ses extrémités, très variable, mais jamais au point d'étendre hors de lui-même des prolongements qui le déforment entièrement, et n'offrant en aucune partie de sa surface de replis longitudinaux ou de cavités en forme de bourse. Très  contractiles, mais jamais diffluents[note 3], les Kolpodes, transparents, rampent sur leur plat, et présentent déjà des rapports avec les planaires par leur manière de nager[3]. »
+Genre 12. Kolpode, Kolpoda, Muller, (1773). Corps parfaitement membraneux, atténué au moins vers l’une de ses extrémités, très variable, mais jamais au point d'étendre hors de lui-même des prolongements qui le déforment entièrement, et n'offrant en aucune partie de sa surface de replis longitudinaux ou de cavités en forme de bourse. Très  contractiles, mais jamais diffluents[note 3], les Kolpodes, transparents, rampent sur leur plat, et présentent déjà des rapports avec les planaires par leur manière de nager. »
 Bory de St-Vincent incorpora quatre genres dans cette famille : Amiba, Kolpoda, Paramoecium et Triodonta ; seul le genre  Kolpoda orthographié Colpoda y a été retenu.
 </t>
         </is>
@@ -578,9 +594,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 novembre 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 novembre 2022) :
 Apocolpoda Foissner, 1993
 Bresslaua Kahl, 1931
 Colpoda O.F. Müller, 1773
@@ -623,9 +641,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Colpodidae Bory de St. Vincent, 1826[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Colpodidae Bory de St. Vincent, 1826.
 </t>
         </is>
       </c>
